--- a/InputData/indst/ItICM/Industry to ISIC Code Map.xlsx
+++ b/InputData/indst/ItICM/Industry to ISIC Code Map.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\indst\ItICM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1139410A-90C3-41D4-9E03-DC3844EDF4FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC28FF2-2621-4897-BCA9-8021FDBBE0CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="435" windowWidth="26295" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="345" windowWidth="25665" windowHeight="16830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="ItICM" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Source:</t>
   </si>
@@ -99,12 +99,6 @@
     <t>ISIC 22: Rubber and plastic products</t>
   </si>
   <si>
-    <t>ISIC 23: Other non-metallic mineral products</t>
-  </si>
-  <si>
-    <t>ISIC 24: Basic metals</t>
-  </si>
-  <si>
     <t>ISIC 25: Fabricated metal products</t>
   </si>
   <si>
@@ -126,9 +120,6 @@
     <t>ISIC 31T33: Other manufacturing; repair and installation of machinery and equipment</t>
   </si>
   <si>
-    <t>ISIC 35T39: Electricity, gas, water supply, sewerage, waste and remediation services</t>
-  </si>
-  <si>
     <t>ISIC 41T43: Construction</t>
   </si>
   <si>
@@ -250,6 +241,27 @@
   </si>
   <si>
     <t>"ISIC 06: Oil and gas extraction"</t>
+  </si>
+  <si>
+    <t>ISIC 231: Glass</t>
+  </si>
+  <si>
+    <t>ISIC 239: Cement and other nometallic minerals</t>
+  </si>
+  <si>
+    <t>ISIC 241: Iron and steel</t>
+  </si>
+  <si>
+    <t>ISIC 242: Other metals</t>
+  </si>
+  <si>
+    <t>ISIC 351: Electricity generation and distribution</t>
+  </si>
+  <si>
+    <t>ISIC 352T353: Energy pipelines and gas processing</t>
+  </si>
+  <si>
+    <t>ISIC 36T39: Water and waste</t>
   </si>
 </sst>
 </file>
@@ -321,7 +333,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -342,6 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -656,107 +669,107 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -770,7 +783,7 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AM9"/>
+  <dimension ref="A1:AQ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -782,10 +795,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.140625" customWidth="1"/>
-    <col min="2" max="39" width="14.140625" customWidth="1"/>
+    <col min="2" max="43" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -793,10 +806,10 @@
         <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>13</v>
@@ -820,91 +833,103 @@
         <v>19</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>20</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -947,11 +972,11 @@
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2" s="7">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="7">
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1022,8 +1047,20 @@
       <c r="AM2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1102,7 +1139,7 @@
       <c r="Z3">
         <v>0</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="10">
         <v>0</v>
       </c>
       <c r="AB3">
@@ -1141,8 +1178,20 @@
       <c r="AM3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1188,11 +1237,11 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>1</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1260,8 +1309,20 @@
       <c r="AM4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1379,8 +1440,20 @@
       <c r="AM5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -1498,8 +1571,20 @@
       <c r="AM6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -1581,8 +1666,8 @@
       <c r="AA7">
         <v>0</v>
       </c>
-      <c r="AB7">
-        <v>0</v>
+      <c r="AB7" s="7">
+        <v>1</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1617,8 +1702,20 @@
       <c r="AM7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -1736,8 +1833,20 @@
       <c r="AM8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -1780,14 +1889,14 @@
       <c r="N9" s="7">
         <v>1</v>
       </c>
-      <c r="O9">
-        <v>0</v>
+      <c r="O9" s="7">
+        <v>1</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
-      <c r="Q9" s="7">
-        <v>1</v>
+      <c r="Q9">
+        <v>0</v>
       </c>
       <c r="R9" s="7">
         <v>1</v>
@@ -1807,8 +1916,8 @@
       <c r="W9" s="7">
         <v>1</v>
       </c>
-      <c r="X9">
-        <v>0</v>
+      <c r="X9" s="7">
+        <v>1</v>
       </c>
       <c r="Y9" s="7">
         <v>1</v>
@@ -1853,6 +1962,18 @@
         <v>0</v>
       </c>
       <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
         <v>0</v>
       </c>
     </row>
